--- a/data/上海海关分贸易方式/2024.xlsx
+++ b/data/上海海关分贸易方式/2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9767"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="0-18" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
-  <si>
-    <t>本市1：2024年1至7月进出口商品贸易方式总值表（人民币值）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+  <si>
+    <t>本市1：2024年1至8月进出口商品贸易方式总值表（人民币值）</t>
   </si>
   <si>
     <t/>
@@ -47,10 +47,10 @@
     <t>进口</t>
   </si>
   <si>
-    <t>2024年07月-2024年07月</t>
-  </si>
-  <si>
-    <t>2024年01月-2024年07月</t>
+    <t>2024年08月-2024年08月</t>
+  </si>
+  <si>
+    <t>2024年01月-2024年08月</t>
   </si>
   <si>
     <t>贸易方式2位</t>
@@ -1401,17 +1401,17 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="44.712962962963"/>
+    <col min="1" max="1" width="44.7142857142857"/>
     <col min="2" max="13" width="25"/>
-    <col min="14" max="16384" width="9.13888888888889" style="1"/>
+    <col min="14" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:13">
+    <row r="1" ht="20.25" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1526,40 +1526,40 @@
         <v>10</v>
       </c>
       <c r="B5" s="10">
-        <v>36301058.4497</v>
+        <v>34707045.254</v>
       </c>
       <c r="C5" s="10">
-        <v>1.2113</v>
+        <v>0.0312</v>
       </c>
       <c r="D5" s="10">
-        <v>246049029.2618</v>
+        <v>280710579.5043</v>
       </c>
       <c r="E5" s="10">
-        <v>0.6538</v>
+        <v>0.5601</v>
       </c>
       <c r="F5" s="10">
-        <v>15734497.0073</v>
+        <v>15640025.1042</v>
       </c>
       <c r="G5" s="10">
-        <v>4.6612</v>
+        <v>8.1798</v>
       </c>
       <c r="H5" s="10">
-        <v>101465327.8434</v>
+        <v>117057394.7317</v>
       </c>
       <c r="I5" s="10">
-        <v>2.185</v>
+        <v>2.9047</v>
       </c>
       <c r="J5" s="10">
-        <v>20566561.4424</v>
+        <v>19067020.1498</v>
       </c>
       <c r="K5" s="10">
-        <v>-1.2783</v>
+        <v>-5.7897</v>
       </c>
       <c r="L5" s="10">
-        <v>144583701.4184</v>
+        <v>163653184.7726</v>
       </c>
       <c r="M5" s="10">
-        <v>-0.3936</v>
+        <v>-1.0524</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1567,69 +1567,69 @@
         <v>11</v>
       </c>
       <c r="B6" s="10">
-        <v>21151650.7016</v>
+        <v>21065236.8165</v>
       </c>
       <c r="C6" s="10">
-        <v>-1.5793</v>
+        <v>4.4554</v>
       </c>
       <c r="D6" s="10">
-        <v>146708313.2033</v>
+        <v>167773474.1589</v>
       </c>
       <c r="E6" s="10">
-        <v>0.0057</v>
+        <v>0.5434</v>
       </c>
       <c r="F6" s="10">
-        <v>8629244.6718</v>
+        <v>9165443.3541</v>
       </c>
       <c r="G6" s="10">
-        <v>6.2524</v>
+        <v>13.2222</v>
       </c>
       <c r="H6" s="10">
-        <v>56216533.442</v>
+        <v>65375453.0715</v>
       </c>
       <c r="I6" s="10">
-        <v>3.4433</v>
+        <v>4.7006</v>
       </c>
       <c r="J6" s="10">
-        <v>12522406.0298</v>
+        <v>11899793.4624</v>
       </c>
       <c r="K6" s="10">
-        <v>-6.3368</v>
+        <v>-1.4234</v>
       </c>
       <c r="L6" s="10">
-        <v>90491779.7613</v>
+        <v>102398021.0874</v>
       </c>
       <c r="M6" s="10">
-        <v>-2.0171</v>
+        <v>-1.9423</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" spans="1:13">
+    <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="10">
-        <v>1607.2088</v>
+        <v>1537.5121</v>
       </c>
       <c r="C7" s="10">
-        <v>-28.0096</v>
+        <v>-32.1558</v>
       </c>
       <c r="D7" s="10">
-        <v>6607.3015</v>
+        <v>8144.8136</v>
       </c>
       <c r="E7" s="10">
-        <v>-48.5649</v>
+        <v>-46.1042</v>
       </c>
       <c r="F7" s="10">
-        <v>1607.2088</v>
+        <v>1537.5121</v>
       </c>
       <c r="G7" s="10">
-        <v>-28.0096</v>
+        <v>-32.1558</v>
       </c>
       <c r="H7" s="10">
-        <v>6607.3015</v>
+        <v>8144.8136</v>
       </c>
       <c r="I7" s="10">
-        <v>-48.5649</v>
+        <v>-46.1042</v>
       </c>
       <c r="J7" s="10">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="1:13">
+    <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>6559.056</v>
       </c>
       <c r="E8" s="10">
-        <v>-82.1018</v>
+        <v>-82.1819</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>6559.056</v>
       </c>
       <c r="M8" s="10">
-        <v>-82.0831</v>
+        <v>-82.1634</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1690,40 +1690,40 @@
         <v>15</v>
       </c>
       <c r="B9" s="10">
-        <v>261465.6719</v>
+        <v>232777.9097</v>
       </c>
       <c r="C9" s="10">
-        <v>-4.2811</v>
+        <v>-15.3926</v>
       </c>
       <c r="D9" s="10">
-        <v>1596172.2943</v>
+        <v>1828950.204</v>
       </c>
       <c r="E9" s="10">
-        <v>-0.6916</v>
+        <v>-2.8402</v>
       </c>
       <c r="F9" s="10">
-        <v>129852.9262</v>
+        <v>133112.7306</v>
       </c>
       <c r="G9" s="10">
-        <v>-15.7126</v>
+        <v>-12.7653</v>
       </c>
       <c r="H9" s="10">
-        <v>881445.0751</v>
+        <v>1014557.8057</v>
       </c>
       <c r="I9" s="10">
-        <v>-0.8297</v>
+        <v>-2.5785</v>
       </c>
       <c r="J9" s="10">
-        <v>131612.7457</v>
+        <v>99665.1791</v>
       </c>
       <c r="K9" s="10">
-        <v>10.5059</v>
+        <v>-18.6643</v>
       </c>
       <c r="L9" s="10">
-        <v>714727.2192</v>
+        <v>814392.3983</v>
       </c>
       <c r="M9" s="10">
-        <v>-0.5207</v>
+        <v>-3.1643</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1731,40 +1731,40 @@
         <v>16</v>
       </c>
       <c r="B10" s="10">
-        <v>4948350.831</v>
+        <v>4633312.6598</v>
       </c>
       <c r="C10" s="10">
-        <v>9.242</v>
+        <v>3.9167</v>
       </c>
       <c r="D10" s="10">
-        <v>31141517.8941</v>
+        <v>35767748.5129</v>
       </c>
       <c r="E10" s="10">
-        <v>-3.0395</v>
+        <v>-2.2109</v>
       </c>
       <c r="F10" s="10">
-        <v>3321994.5328</v>
+        <v>3053732.2631</v>
       </c>
       <c r="G10" s="10">
-        <v>13.6784</v>
+        <v>5.7331</v>
       </c>
       <c r="H10" s="10">
-        <v>21507942.5398</v>
+        <v>24556049.1844</v>
       </c>
       <c r="I10" s="10">
-        <v>-0.5634</v>
+        <v>0.1554</v>
       </c>
       <c r="J10" s="10">
-        <v>1626356.2982</v>
+        <v>1579580.3967</v>
       </c>
       <c r="K10" s="10">
-        <v>1.1767</v>
+        <v>0.5765</v>
       </c>
       <c r="L10" s="10">
-        <v>9633575.3543</v>
+        <v>11211699.3285</v>
       </c>
       <c r="M10" s="10">
-        <v>-8.1461</v>
+        <v>-7.0221</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1772,7 +1772,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="10">
-        <v>83.1276</v>
+        <v>0</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>13</v>
@@ -1784,7 +1784,7 @@
         <v>-59.823</v>
       </c>
       <c r="F11" s="10">
-        <v>83.1276</v>
+        <v>0</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>13</v>
@@ -1813,16 +1813,16 @@
         <v>18</v>
       </c>
       <c r="B12" s="10">
-        <v>333.8363</v>
+        <v>146.8527</v>
       </c>
       <c r="C12" s="10">
-        <v>110.2089</v>
+        <v>1353.1814</v>
       </c>
       <c r="D12" s="10">
-        <v>2629.0245</v>
+        <v>2775.8772</v>
       </c>
       <c r="E12" s="10">
-        <v>-49.0373</v>
+        <v>-46.2958</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
@@ -1837,16 +1837,16 @@
         <v>13</v>
       </c>
       <c r="J12" s="10">
-        <v>333.8363</v>
+        <v>146.8527</v>
       </c>
       <c r="K12" s="10">
-        <v>110.2089</v>
+        <v>1353.1814</v>
       </c>
       <c r="L12" s="10">
-        <v>2629.0245</v>
+        <v>2775.8772</v>
       </c>
       <c r="M12" s="10">
-        <v>-49.0373</v>
+        <v>-46.2958</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1854,28 +1854,28 @@
         <v>19</v>
       </c>
       <c r="B13" s="10">
-        <v>53644.0811</v>
+        <v>93174.8658</v>
       </c>
       <c r="C13" s="10">
-        <v>-1.0137</v>
+        <v>275.3829</v>
       </c>
       <c r="D13" s="10">
-        <v>376737.3076</v>
+        <v>469912.1734</v>
       </c>
       <c r="E13" s="10">
-        <v>41.2521</v>
+        <v>61.1861</v>
       </c>
       <c r="F13" s="10">
-        <v>53644.0811</v>
+        <v>93174.8658</v>
       </c>
       <c r="G13" s="10">
-        <v>-1.0137</v>
+        <v>275.3829</v>
       </c>
       <c r="H13" s="10">
-        <v>376737.3076</v>
+        <v>469912.1734</v>
       </c>
       <c r="I13" s="10">
-        <v>41.2521</v>
+        <v>61.1861</v>
       </c>
       <c r="J13" s="10">
         <v>0</v>
@@ -1895,40 +1895,40 @@
         <v>20</v>
       </c>
       <c r="B14" s="10">
-        <v>22503.1178</v>
+        <v>51392.7698</v>
       </c>
       <c r="C14" s="10">
-        <v>1635.6373</v>
+        <v>46476.5243</v>
       </c>
       <c r="D14" s="10">
-        <v>249014.9682</v>
+        <v>300407.738</v>
       </c>
       <c r="E14" s="10">
-        <v>462.7715</v>
+        <v>577.2299</v>
       </c>
       <c r="F14" s="10">
-        <v>22484.3514</v>
+        <v>23485.3959</v>
       </c>
       <c r="G14" s="10">
-        <v>1648.5469</v>
+        <v>21184.4748</v>
       </c>
       <c r="H14" s="10">
-        <v>246950.1008</v>
+        <v>270435.4967</v>
       </c>
       <c r="I14" s="10">
-        <v>514.8532</v>
+        <v>571.4822</v>
       </c>
       <c r="J14" s="10">
-        <v>18.7664</v>
-      </c>
-      <c r="K14" s="10">
-        <v>76.2832</v>
+        <v>27907.3739</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="L14" s="10">
-        <v>2064.8674</v>
+        <v>29972.2413</v>
       </c>
       <c r="M14" s="10">
-        <v>-49.4388</v>
+        <v>633.9131</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1936,16 +1936,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="10">
-        <v>1418.5619</v>
+        <v>143.503</v>
       </c>
       <c r="C15" s="10">
-        <v>148.3253</v>
+        <v>-98.1921</v>
       </c>
       <c r="D15" s="10">
-        <v>5824.1099</v>
+        <v>5967.6129</v>
       </c>
       <c r="E15" s="10">
-        <v>-81.7575</v>
+        <v>-85.0299</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
@@ -1960,16 +1960,16 @@
         <v>13</v>
       </c>
       <c r="J15" s="10">
-        <v>1418.5619</v>
+        <v>143.503</v>
       </c>
       <c r="K15" s="10">
-        <v>148.3253</v>
+        <v>-98.1921</v>
       </c>
       <c r="L15" s="10">
-        <v>5824.1099</v>
+        <v>5967.6129</v>
       </c>
       <c r="M15" s="10">
-        <v>-81.7575</v>
+        <v>-85.0299</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1977,122 +1977,122 @@
         <v>22</v>
       </c>
       <c r="B16" s="10">
-        <v>37114.3306</v>
+        <v>38958.9289</v>
       </c>
       <c r="C16" s="10">
-        <v>149.921</v>
+        <v>221.183</v>
       </c>
       <c r="D16" s="10">
-        <v>140094.211</v>
+        <v>179052.9772</v>
       </c>
       <c r="E16" s="10">
-        <v>148.5909</v>
+        <v>161.4479</v>
       </c>
       <c r="F16" s="10">
-        <v>16581.8236</v>
+        <v>20401.8039</v>
       </c>
       <c r="G16" s="10">
-        <v>190.1291</v>
+        <v>268.7833</v>
       </c>
       <c r="H16" s="10">
-        <v>63944.1462</v>
+        <v>84345.9501</v>
       </c>
       <c r="I16" s="10">
-        <v>198.9014</v>
+        <v>213.2597</v>
       </c>
       <c r="J16" s="10">
-        <v>20532.507</v>
+        <v>18557.125</v>
       </c>
       <c r="K16" s="10">
-        <v>124.7649</v>
+        <v>181.2695</v>
       </c>
       <c r="L16" s="10">
-        <v>76150.0648</v>
+        <v>94707.0271</v>
       </c>
       <c r="M16" s="10">
-        <v>117.8064</v>
+        <v>127.8808</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1" spans="1:13">
+    <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="10">
-        <v>1202883.0862</v>
+        <v>712365.9892</v>
       </c>
       <c r="C17" s="10">
-        <v>47.4929</v>
+        <v>-51.7032</v>
       </c>
       <c r="D17" s="10">
-        <v>10143728.6008</v>
+        <v>10855801.898</v>
       </c>
       <c r="E17" s="10">
-        <v>31.1342</v>
+        <v>17.8652</v>
       </c>
       <c r="F17" s="10">
-        <v>234070.581</v>
+        <v>228495.9355</v>
       </c>
       <c r="G17" s="10">
-        <v>15.4594</v>
+        <v>9.0076</v>
       </c>
       <c r="H17" s="10">
-        <v>1606607.2679</v>
+        <v>1835103.2034</v>
       </c>
       <c r="I17" s="10">
-        <v>35.7731</v>
+        <v>31.7453</v>
       </c>
       <c r="J17" s="10">
-        <v>968812.5052</v>
+        <v>483870.0537</v>
       </c>
       <c r="K17" s="10">
-        <v>58.09</v>
+        <v>-61.7603</v>
       </c>
       <c r="L17" s="10">
-        <v>8537121.3329</v>
+        <v>9020698.6946</v>
       </c>
       <c r="M17" s="10">
-        <v>30.2964</v>
+        <v>15.392</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1" spans="1:13">
+    <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="10">
-        <v>8405900.3904</v>
+        <v>7681370.7106</v>
       </c>
       <c r="C18" s="10">
-        <v>-0.5669</v>
+        <v>-4.7902</v>
       </c>
       <c r="D18" s="10">
-        <v>54253654.345</v>
+        <v>61896935.984</v>
       </c>
       <c r="E18" s="10">
-        <v>-0.5376</v>
+        <v>-1.1464</v>
       </c>
       <c r="F18" s="10">
-        <v>3215795.6383</v>
+        <v>2815277.7958</v>
       </c>
       <c r="G18" s="10">
-        <v>-7.3309</v>
+        <v>-5.4924</v>
       </c>
       <c r="H18" s="10">
-        <v>19840564.8875</v>
+        <v>22620162.8387</v>
       </c>
       <c r="I18" s="10">
-        <v>-2.2147</v>
+        <v>-2.7876</v>
       </c>
       <c r="J18" s="10">
-        <v>5190104.7521</v>
+        <v>4866092.9148</v>
       </c>
       <c r="K18" s="10">
-        <v>4.143</v>
+        <v>-4.3791</v>
       </c>
       <c r="L18" s="10">
-        <v>34413089.4575</v>
+        <v>39276773.1453</v>
       </c>
       <c r="M18" s="10">
-        <v>0.4556</v>
+        <v>-0.1758</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2100,16 +2100,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="10">
-        <v>9688.7815</v>
+        <v>6205.2379</v>
       </c>
       <c r="C19" s="10">
-        <v>14.8096</v>
+        <v>-51.775</v>
       </c>
       <c r="D19" s="10">
-        <v>84031.7152</v>
+        <v>90236.9531</v>
       </c>
       <c r="E19" s="10">
-        <v>-17.2677</v>
+        <v>-21.1476</v>
       </c>
       <c r="F19" s="10">
         <v>0</v>
@@ -2124,16 +2124,16 @@
         <v>13</v>
       </c>
       <c r="J19" s="10">
-        <v>9688.7815</v>
+        <v>6205.2379</v>
       </c>
       <c r="K19" s="10">
-        <v>14.8096</v>
+        <v>-51.775</v>
       </c>
       <c r="L19" s="10">
-        <v>84031.7152</v>
+        <v>90236.9531</v>
       </c>
       <c r="M19" s="10">
-        <v>-17.2677</v>
+        <v>-21.1476</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2141,40 +2141,40 @@
         <v>26</v>
       </c>
       <c r="B20" s="10">
-        <v>201291.1005</v>
+        <v>189115.5235</v>
       </c>
       <c r="C20" s="10">
-        <v>9.8449</v>
+        <v>-0.9094</v>
       </c>
       <c r="D20" s="10">
-        <v>1319531.8327</v>
+        <v>1508692.1729</v>
       </c>
       <c r="E20" s="10">
-        <v>11.7121</v>
+        <v>9.9598</v>
       </c>
       <c r="F20" s="10">
-        <v>109138.0647</v>
+        <v>105363.4474</v>
       </c>
       <c r="G20" s="10">
-        <v>9.5704</v>
+        <v>4.9884</v>
       </c>
       <c r="H20" s="10">
-        <v>717673.4482</v>
+        <v>822907.8674</v>
       </c>
       <c r="I20" s="10">
-        <v>16.2251</v>
+        <v>14.6362</v>
       </c>
       <c r="J20" s="10">
-        <v>92153.0358</v>
+        <v>83752.0761</v>
       </c>
       <c r="K20" s="10">
-        <v>10.1717</v>
+        <v>-7.4499</v>
       </c>
       <c r="L20" s="10">
-        <v>601858.3845</v>
+        <v>685784.3055</v>
       </c>
       <c r="M20" s="10">
-        <v>6.7687</v>
+        <v>4.8284</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2182,16 +2182,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="10">
-        <v>3123.6225</v>
+        <v>1305.9745</v>
       </c>
       <c r="C21" s="10">
-        <v>84.5567</v>
+        <v>-24.3974</v>
       </c>
       <c r="D21" s="10">
-        <v>14291.0709</v>
+        <v>15597.0454</v>
       </c>
       <c r="E21" s="10">
-        <v>134.1543</v>
+        <v>99.1784</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
@@ -2206,16 +2206,16 @@
         <v>13</v>
       </c>
       <c r="J21" s="10">
-        <v>3123.6225</v>
+        <v>1305.9745</v>
       </c>
       <c r="K21" s="10">
-        <v>84.5567</v>
+        <v>-24.3974</v>
       </c>
       <c r="L21" s="10">
-        <v>14291.0709</v>
+        <v>15597.0454</v>
       </c>
       <c r="M21" s="10">
-        <v>134.1543</v>
+        <v>99.1784</v>
       </c>
     </row>
   </sheetData>
